--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -682,14 +682,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 26262-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 26262-2024</t>
+          <t>A 14517-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45468.66077546297</v>
+        <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45946</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 4156-2023</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44953</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 14517-2023</t>
+          <t>A 23798-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45012</v>
+        <v>45455.43208333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23798-2024</t>
+          <t>A 4156-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45455.43208333333</v>
+        <v>44953</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>44953</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45946</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45012.86600694444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45455.43208333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44953</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44953</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45946</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45012.86600694444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45455.43208333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44953</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44953</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -682,14 +682,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26262-2024</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45468.66077546297</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 14517-2023</t>
+          <t>A 4156-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45012</v>
+        <v>44953</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>45946</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 26262-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>45468.66077546297</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 23798-2024</t>
+          <t>A 14517-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45455.43208333333</v>
+        <v>45012</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4156-2023</t>
+          <t>A 23798-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44953</v>
+        <v>45455.43208333333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>44953</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -682,14 +682,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 26262-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 4156-2023</t>
+          <t>A 14517-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44953</v>
+        <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>45946</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 26262-2024</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45468.66077546297</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 14517-2023</t>
+          <t>A 23798-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45012</v>
+        <v>45455.43208333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23798-2024</t>
+          <t>A 4156-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45455.43208333333</v>
+        <v>44953</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>44953</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -682,14 +682,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26262-2024</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45468.66077546297</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 14517-2023</t>
+          <t>A 26262-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45012</v>
+        <v>45468.66077546297</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -796,14 +796,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 50762-2025</t>
+          <t>A 4156-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45946</v>
+        <v>44953</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 14517-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>45012</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>45455.43208333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4156-2023</t>
+          <t>A 4159-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>44953</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1024,14 +1024,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4159-2023</t>
+          <t>A 50762-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44953</v>
+        <v>45946</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -682,14 +682,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 26262-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 26262-2024</t>
+          <t>A 14517-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45468.66077546297</v>
+        <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -796,14 +796,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 4156-2023</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44953</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 14517-2023</t>
+          <t>A 50762-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45012</v>
+        <v>45946</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>45455.43208333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4159-2023</t>
+          <t>A 4156-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>44953</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1024,14 +1024,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 50762-2025</t>
+          <t>A 4159-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45946</v>
+        <v>44953</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -796,14 +796,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 50762-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>45946</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 50762-2025</t>
+          <t>A 8679-2026</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45946</v>
+        <v>46066</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 23798-2024</t>
+          <t>A 8929-2026</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45455.43208333333</v>
+        <v>46069.34543981482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4156-2023</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44953</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1021,62 +1021,176 @@
       </c>
       <c r="R9" s="2" t="inlineStr"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
+          <t>A 23798-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45455.43208333333</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÅSTORP</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 4156-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÅSTORP</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>A 4159-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44953</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SKÅNE LÄN</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>ÅSTORP</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G12" t="n">
         <v>0.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 14517-2023</t>
+          <t>A 50762-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45012</v>
+        <v>45946</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -796,14 +796,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 50762-2025</t>
+          <t>A 14517-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45946</v>
+        <v>45012</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 8679-2026</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>46066</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 8929-2026</t>
+          <t>A 8679-2026</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46069.34543981482</v>
+        <v>46066</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 8929-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>46069.34543981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>45455.43208333333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44953</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44953</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -682,14 +682,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26262-2024</t>
+          <t>A 50762-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45468.66077546297</v>
+        <v>45946</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 50762-2025</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45946</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -796,14 +796,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 14517-2023</t>
+          <t>A 4156-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45012</v>
+        <v>44953</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 8679-2026</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>46066</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 8679-2026</t>
+          <t>A 26262-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46066</v>
+        <v>45468.66077546297</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>46069.34543981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1024,14 +1024,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23798-2024</t>
+          <t>A 14517-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45455.43208333333</v>
+        <v>45012</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1081,14 +1081,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4156-2023</t>
+          <t>A 23798-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44953</v>
+        <v>45455.43208333333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>44953</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -682,14 +682,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 50762-2025</t>
+          <t>A 26262-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45946</v>
+        <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 14516-2023</t>
+          <t>A 14517-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45012.86600694444</v>
+        <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -796,14 +796,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 4156-2023</t>
+          <t>A 50762-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44953</v>
+        <v>45946</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 8679-2026</t>
+          <t>A 14516-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>46066</v>
+        <v>45012.86600694444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 26262-2024</t>
+          <t>A 23798-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45468.66077546297</v>
+        <v>45455.43208333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 8929-2026</t>
+          <t>A 4156-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46069.34543981482</v>
+        <v>44953</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1024,14 +1024,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 14517-2023</t>
+          <t>A 8679-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45012</v>
+        <v>46066</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1081,14 +1081,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23798-2024</t>
+          <t>A 8929-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45455.43208333333</v>
+        <v>46069.34543981482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>44953</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt ÅSTORP.xlsx
+++ b/Översikt ÅSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44732</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44732</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45468.66077546297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45012</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45946</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45012.86600694444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45455.43208333333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44953</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>46066</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>46069.34543981482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44953</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
